--- a/medicine/Psychotrope/Blend_(thé)/Blend_(thé).xlsx
+++ b/medicine/Psychotrope/Blend_(thé)/Blend_(thé).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Blend_(th%C3%A9)</t>
+          <t>Blend_(thé)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un blend est un mélange de différentes variétés de thé, dans le but de créer un parfum particulier, bien équilibré, en combinant des thés de différentes origines et saveurs. Le procédé a également pour conséquence de lisser les différences de qualité d’un même jardin d’une année à l’autre. La plupart des blends sont obtenus à partir de thé noir, mais on peut aussi y trouver des pu-erh ou des thés fumés. Pratiquement tous les thés vendus en sachets sont des blends.
 Les blends traditionnellement consommés au petit-déjeuner sont robustes et corsés, tel l’English breakfast, l’Irish breakfast et le Scottish breakfast. Les blends plus légers, comme le Prince de Galles, sont généralement préférés pour l’après-midi, bien que ces considérations soient dépourvues de fondements scientifiques.
